--- a/leeeson202512/sample1.xlsx
+++ b/leeeson202512/sample1.xlsx
@@ -420,7 +420,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>